--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ptn-Plxnb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ptn-Plxnb2.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2142603333333334</v>
+        <v>1.00581</v>
       </c>
       <c r="H2">
-        <v>0.642781</v>
+        <v>3.01743</v>
       </c>
       <c r="I2">
-        <v>0.0008189883677700239</v>
+        <v>0.003799625168827527</v>
       </c>
       <c r="J2">
-        <v>0.0008189883677700238</v>
+        <v>0.003799625168827527</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.39091433333333</v>
+        <v>11.61289466666667</v>
       </c>
       <c r="N2">
-        <v>31.172743</v>
+        <v>34.838684</v>
       </c>
       <c r="O2">
-        <v>0.0835098648954196</v>
+        <v>0.09693042549509606</v>
       </c>
       <c r="P2">
-        <v>0.0835098648954196</v>
+        <v>0.09693042549509606</v>
       </c>
       <c r="Q2">
-        <v>2.226360768698111</v>
+        <v>11.68036558468</v>
       </c>
       <c r="R2">
-        <v>20.037246918283</v>
+        <v>105.12329026212</v>
       </c>
       <c r="S2">
-        <v>6.839360794339492E-05</v>
+        <v>0.0003682992843363284</v>
       </c>
       <c r="T2">
-        <v>6.839360794339491E-05</v>
+        <v>0.0003682992843363284</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2142603333333334</v>
+        <v>1.00581</v>
       </c>
       <c r="H3">
-        <v>0.642781</v>
+        <v>3.01743</v>
       </c>
       <c r="I3">
-        <v>0.0008189883677700239</v>
+        <v>0.003799625168827527</v>
       </c>
       <c r="J3">
-        <v>0.0008189883677700238</v>
+        <v>0.003799625168827527</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>107.146858</v>
       </c>
       <c r="O3">
-        <v>0.287039855156433</v>
+        <v>0.2981108740043866</v>
       </c>
       <c r="P3">
-        <v>0.287039855156433</v>
+        <v>0.2981108740043866</v>
       </c>
       <c r="Q3">
-        <v>7.652440503566446</v>
+        <v>35.92312708166001</v>
       </c>
       <c r="R3">
-        <v>68.871964532098</v>
+        <v>323.30814373494</v>
       </c>
       <c r="S3">
-        <v>0.0002350823024595111</v>
+        <v>0.001132709579968239</v>
       </c>
       <c r="T3">
-        <v>0.0002350823024595111</v>
+        <v>0.001132709579968239</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2142603333333334</v>
+        <v>1.00581</v>
       </c>
       <c r="H4">
-        <v>0.642781</v>
+        <v>3.01743</v>
       </c>
       <c r="I4">
-        <v>0.0008189883677700239</v>
+        <v>0.003799625168827527</v>
       </c>
       <c r="J4">
-        <v>0.0008189883677700238</v>
+        <v>0.003799625168827527</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.450408</v>
+        <v>27.39934733333333</v>
       </c>
       <c r="N4">
-        <v>79.351224</v>
+        <v>82.198042</v>
       </c>
       <c r="O4">
-        <v>0.2125770579613792</v>
+        <v>0.2286966748205465</v>
       </c>
       <c r="P4">
-        <v>0.2125770579613792</v>
+        <v>0.2286966748205465</v>
       </c>
       <c r="Q4">
-        <v>5.667273234882667</v>
+        <v>27.55853754134001</v>
       </c>
       <c r="R4">
-        <v>51.00545911394401</v>
+        <v>248.02683787206</v>
       </c>
       <c r="S4">
-        <v>0.0001740981377251437</v>
+        <v>0.0008689616416753132</v>
       </c>
       <c r="T4">
-        <v>0.0001740981377251437</v>
+        <v>0.0008689616416753132</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2142603333333334</v>
+        <v>1.00581</v>
       </c>
       <c r="H5">
-        <v>0.642781</v>
+        <v>3.01743</v>
       </c>
       <c r="I5">
-        <v>0.0008189883677700239</v>
+        <v>0.003799625168827527</v>
       </c>
       <c r="J5">
-        <v>0.0008189883677700238</v>
+        <v>0.003799625168827527</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>51.87044599999999</v>
+        <v>45.078635</v>
       </c>
       <c r="N5">
-        <v>155.611338</v>
+        <v>135.235905</v>
       </c>
       <c r="O5">
-        <v>0.4168732219867681</v>
+        <v>0.3762620256799708</v>
       </c>
       <c r="P5">
-        <v>0.4168732219867682</v>
+        <v>0.3762620256799709</v>
       </c>
       <c r="Q5">
-        <v>11.11377905010867</v>
+        <v>45.34054186935001</v>
       </c>
       <c r="R5">
-        <v>100.024011450978</v>
+        <v>408.06487682415</v>
       </c>
       <c r="S5">
-        <v>0.0003414143196419741</v>
+        <v>0.001429654662847646</v>
       </c>
       <c r="T5">
-        <v>0.0003414143196419741</v>
+        <v>0.001429654662847647</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>761.9064490000001</v>
       </c>
       <c r="I6">
-        <v>0.9707700119635848</v>
+        <v>0.9594121222074437</v>
       </c>
       <c r="J6">
-        <v>0.9707700119635847</v>
+        <v>0.9594121222074438</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.39091433333333</v>
+        <v>11.61289466666667</v>
       </c>
       <c r="N6">
-        <v>31.172743</v>
+        <v>34.838684</v>
       </c>
       <c r="O6">
-        <v>0.0835098648954196</v>
+        <v>0.09693042549509606</v>
       </c>
       <c r="P6">
-        <v>0.0835098648954196</v>
+        <v>0.09693042549509606</v>
       </c>
       <c r="Q6">
-        <v>2638.968213857735</v>
+        <v>2949.313112697013</v>
       </c>
       <c r="R6">
-        <v>23750.71392471961</v>
+        <v>26543.81801427312</v>
       </c>
       <c r="S6">
-        <v>0.08106887254360384</v>
+        <v>0.09299622523072061</v>
       </c>
       <c r="T6">
-        <v>0.08106887254360383</v>
+        <v>0.09299622523072062</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>761.9064490000001</v>
       </c>
       <c r="I7">
-        <v>0.9707700119635848</v>
+        <v>0.9594121222074437</v>
       </c>
       <c r="J7">
-        <v>0.9707700119635847</v>
+        <v>0.9594121222074438</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>107.146858</v>
       </c>
       <c r="O7">
-        <v>0.287039855156433</v>
+        <v>0.2981108740043866</v>
       </c>
       <c r="P7">
-        <v>0.287039855156433</v>
+        <v>0.2981108740043866</v>
       </c>
       <c r="Q7">
         <v>9070.653566698584</v>
@@ -883,10 +883,10 @@
         <v>81635.88210028726</v>
       </c>
       <c r="S7">
-        <v>0.2786496836242361</v>
+        <v>0.2860111862816644</v>
       </c>
       <c r="T7">
-        <v>0.2786496836242361</v>
+        <v>0.2860111862816644</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>761.9064490000001</v>
       </c>
       <c r="I8">
-        <v>0.9707700119635848</v>
+        <v>0.9594121222074437</v>
       </c>
       <c r="J8">
-        <v>0.9707700119635847</v>
+        <v>0.9594121222074438</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.450408</v>
+        <v>27.39934733333333</v>
       </c>
       <c r="N8">
-        <v>79.351224</v>
+        <v>82.198042</v>
       </c>
       <c r="O8">
-        <v>0.2125770579613792</v>
+        <v>0.2286966748205465</v>
       </c>
       <c r="P8">
-        <v>0.2125770579613792</v>
+        <v>0.2286966748205465</v>
       </c>
       <c r="Q8">
-        <v>6717.578811293732</v>
+        <v>6958.579810552541</v>
       </c>
       <c r="R8">
-        <v>60458.20930164358</v>
+        <v>62627.21829497287</v>
       </c>
       <c r="S8">
-        <v>0.2063634331003517</v>
+        <v>0.2194143621313662</v>
       </c>
       <c r="T8">
-        <v>0.2063634331003518</v>
+        <v>0.2194143621313662</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>761.9064490000001</v>
       </c>
       <c r="I9">
-        <v>0.9707700119635848</v>
+        <v>0.9594121222074437</v>
       </c>
       <c r="J9">
-        <v>0.9707700119635847</v>
+        <v>0.9594121222074438</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>51.87044599999999</v>
+        <v>45.078635</v>
       </c>
       <c r="N9">
-        <v>155.611338</v>
+        <v>135.235905</v>
       </c>
       <c r="O9">
-        <v>0.4168732219867681</v>
+        <v>0.3762620256799708</v>
       </c>
       <c r="P9">
-        <v>0.4168732219867682</v>
+        <v>0.3762620256799709</v>
       </c>
       <c r="Q9">
-        <v>13173.47577330209</v>
+        <v>11448.56757287237</v>
       </c>
       <c r="R9">
-        <v>118561.2819597188</v>
+        <v>103037.1081558514</v>
       </c>
       <c r="S9">
-        <v>0.4046880226953931</v>
+        <v>0.3609903485636924</v>
       </c>
       <c r="T9">
-        <v>0.4046880226953931</v>
+        <v>0.3609903485636926</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.418211666666667</v>
+        <v>9.336668333333334</v>
       </c>
       <c r="H10">
-        <v>22.254635</v>
+        <v>28.010005</v>
       </c>
       <c r="I10">
-        <v>0.02835536083668877</v>
+        <v>0.03527091597053946</v>
       </c>
       <c r="J10">
-        <v>0.02835536083668877</v>
+        <v>0.03527091597053946</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.39091433333333</v>
+        <v>11.61289466666667</v>
       </c>
       <c r="N10">
-        <v>31.172743</v>
+        <v>34.838684</v>
       </c>
       <c r="O10">
-        <v>0.0835098648954196</v>
+        <v>0.09693042549509606</v>
       </c>
       <c r="P10">
-        <v>0.0835098648954196</v>
+        <v>0.09693042549509606</v>
       </c>
       <c r="Q10">
-        <v>77.08200193486722</v>
+        <v>108.4257458926022</v>
       </c>
       <c r="R10">
-        <v>693.738017413805</v>
+        <v>975.83171303342</v>
       </c>
       <c r="S10">
-        <v>0.002367952352532751</v>
+        <v>0.003418824892626169</v>
       </c>
       <c r="T10">
-        <v>0.002367952352532751</v>
+        <v>0.003418824892626169</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.418211666666667</v>
+        <v>9.336668333333334</v>
       </c>
       <c r="H11">
-        <v>22.254635</v>
+        <v>28.010005</v>
       </c>
       <c r="I11">
-        <v>0.02835536083668877</v>
+        <v>0.03527091597053946</v>
       </c>
       <c r="J11">
-        <v>0.02835536083668877</v>
+        <v>0.03527091597053946</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>107.146858</v>
       </c>
       <c r="O11">
-        <v>0.287039855156433</v>
+        <v>0.2981108740043866</v>
       </c>
       <c r="P11">
-        <v>0.287039855156433</v>
+        <v>0.2981108740043866</v>
       </c>
       <c r="Q11">
-        <v>264.9460240207589</v>
+        <v>333.4648920349211</v>
       </c>
       <c r="R11">
-        <v>2384.51421618683</v>
+        <v>3001.18402831429</v>
       </c>
       <c r="S11">
-        <v>0.008139118667471537</v>
+        <v>0.0105146435869128</v>
       </c>
       <c r="T11">
-        <v>0.008139118667471537</v>
+        <v>0.0105146435869128</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.418211666666667</v>
+        <v>9.336668333333334</v>
       </c>
       <c r="H12">
-        <v>22.254635</v>
+        <v>28.010005</v>
       </c>
       <c r="I12">
-        <v>0.02835536083668877</v>
+        <v>0.03527091597053946</v>
       </c>
       <c r="J12">
-        <v>0.02835536083668877</v>
+        <v>0.03527091597053946</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.450408</v>
+        <v>27.39934733333333</v>
       </c>
       <c r="N12">
-        <v>79.351224</v>
+        <v>82.198042</v>
       </c>
       <c r="O12">
-        <v>0.2125770579613792</v>
+        <v>0.2286966748205465</v>
       </c>
       <c r="P12">
-        <v>0.2125770579613792</v>
+        <v>0.2286966748205465</v>
       </c>
       <c r="Q12">
-        <v>196.2147252136933</v>
+        <v>255.8186186011345</v>
       </c>
       <c r="R12">
-        <v>1765.93252692324</v>
+        <v>2302.36756741021</v>
       </c>
       <c r="S12">
-        <v>0.00602769918409661</v>
+        <v>0.008066341200337284</v>
       </c>
       <c r="T12">
-        <v>0.006027699184096611</v>
+        <v>0.008066341200337284</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.418211666666667</v>
+        <v>9.336668333333334</v>
       </c>
       <c r="H13">
-        <v>22.254635</v>
+        <v>28.010005</v>
       </c>
       <c r="I13">
-        <v>0.02835536083668877</v>
+        <v>0.03527091597053946</v>
       </c>
       <c r="J13">
-        <v>0.02835536083668877</v>
+        <v>0.03527091597053946</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>51.87044599999999</v>
+        <v>45.078635</v>
       </c>
       <c r="N13">
-        <v>155.611338</v>
+        <v>135.235905</v>
       </c>
       <c r="O13">
-        <v>0.4168732219867681</v>
+        <v>0.3762620256799708</v>
       </c>
       <c r="P13">
-        <v>0.4168732219867682</v>
+        <v>0.3762620256799709</v>
       </c>
       <c r="Q13">
-        <v>384.7859476724033</v>
+        <v>420.8842639143917</v>
       </c>
       <c r="R13">
-        <v>3463.07352905163</v>
+        <v>3787.958375229525</v>
       </c>
       <c r="S13">
-        <v>0.01182059063258787</v>
+        <v>0.01327110629066321</v>
       </c>
       <c r="T13">
-        <v>0.01182059063258787</v>
+        <v>0.01327110629066321</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.014556</v>
+        <v>0.4016586666666667</v>
       </c>
       <c r="H14">
-        <v>0.043668</v>
+        <v>1.204976</v>
       </c>
       <c r="I14">
-        <v>5.563883195642279E-05</v>
+        <v>0.001517336653189343</v>
       </c>
       <c r="J14">
-        <v>5.563883195642279E-05</v>
+        <v>0.001517336653189343</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.39091433333333</v>
+        <v>11.61289466666667</v>
       </c>
       <c r="N14">
-        <v>31.172743</v>
+        <v>34.838684</v>
       </c>
       <c r="O14">
-        <v>0.0835098648954196</v>
+        <v>0.09693042549509606</v>
       </c>
       <c r="P14">
-        <v>0.0835098648954196</v>
+        <v>0.09693042549509606</v>
       </c>
       <c r="Q14">
-        <v>0.151250149036</v>
+        <v>4.664419787953778</v>
       </c>
       <c r="R14">
-        <v>1.361251341324</v>
+        <v>41.979778091584</v>
       </c>
       <c r="S14">
-        <v>4.646391339619822E-06</v>
+        <v>0.000147076087412948</v>
       </c>
       <c r="T14">
-        <v>4.646391339619822E-06</v>
+        <v>0.000147076087412948</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.014556</v>
+        <v>0.4016586666666667</v>
       </c>
       <c r="H15">
-        <v>0.043668</v>
+        <v>1.204976</v>
       </c>
       <c r="I15">
-        <v>5.563883195642279E-05</v>
+        <v>0.001517336653189343</v>
       </c>
       <c r="J15">
-        <v>5.563883195642279E-05</v>
+        <v>0.001517336653189343</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>107.146858</v>
       </c>
       <c r="O15">
-        <v>0.287039855156433</v>
+        <v>0.2981108740043866</v>
       </c>
       <c r="P15">
-        <v>0.287039855156433</v>
+        <v>0.2981108740043866</v>
       </c>
       <c r="Q15">
-        <v>0.5198765550160001</v>
+        <v>14.34548804060089</v>
       </c>
       <c r="R15">
-        <v>4.678888995144</v>
+        <v>129.109392365408</v>
       </c>
       <c r="S15">
-        <v>1.597056226584471E-05</v>
+        <v>0.0004523345558411657</v>
       </c>
       <c r="T15">
-        <v>1.597056226584471E-05</v>
+        <v>0.0004523345558411657</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.014556</v>
+        <v>0.4016586666666667</v>
       </c>
       <c r="H16">
-        <v>0.043668</v>
+        <v>1.204976</v>
       </c>
       <c r="I16">
-        <v>5.563883195642279E-05</v>
+        <v>0.001517336653189343</v>
       </c>
       <c r="J16">
-        <v>5.563883195642279E-05</v>
+        <v>0.001517336653189343</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>26.450408</v>
+        <v>27.39934733333333</v>
       </c>
       <c r="N16">
-        <v>79.351224</v>
+        <v>82.198042</v>
       </c>
       <c r="O16">
-        <v>0.2125770579613792</v>
+        <v>0.2286966748205465</v>
       </c>
       <c r="P16">
-        <v>0.2125770579613792</v>
+        <v>0.2286966748205465</v>
       </c>
       <c r="Q16">
-        <v>0.385012138848</v>
+        <v>11.00518531744356</v>
       </c>
       <c r="R16">
-        <v>3.465109249632</v>
+        <v>99.046667856992</v>
       </c>
       <c r="S16">
-        <v>1.182753920570392E-05</v>
+        <v>0.0003470098471677395</v>
       </c>
       <c r="T16">
-        <v>1.182753920570393E-05</v>
+        <v>0.0003470098471677395</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.014556</v>
+        <v>0.4016586666666667</v>
       </c>
       <c r="H17">
-        <v>0.043668</v>
+        <v>1.204976</v>
       </c>
       <c r="I17">
-        <v>5.563883195642279E-05</v>
+        <v>0.001517336653189343</v>
       </c>
       <c r="J17">
-        <v>5.563883195642279E-05</v>
+        <v>0.001517336653189343</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>51.87044599999999</v>
+        <v>45.078635</v>
       </c>
       <c r="N17">
-        <v>155.611338</v>
+        <v>135.235905</v>
       </c>
       <c r="O17">
-        <v>0.4168732219867681</v>
+        <v>0.3762620256799708</v>
       </c>
       <c r="P17">
-        <v>0.4168732219867682</v>
+        <v>0.3762620256799709</v>
       </c>
       <c r="Q17">
-        <v>0.7550262119759998</v>
+        <v>18.10622442925333</v>
       </c>
       <c r="R17">
-        <v>6.795235907783999</v>
+        <v>162.95601986328</v>
       </c>
       <c r="S17">
-        <v>2.319433914525433E-05</v>
+        <v>0.0005709161627674894</v>
       </c>
       <c r="T17">
-        <v>2.319433914525433E-05</v>
+        <v>0.0005709161627674895</v>
       </c>
     </row>
   </sheetData>
